--- a/exercices1.xlsx
+++ b/exercices1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELLDRAMOMO\Desktop\Formation Excel IFDC\"/>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>Tomate</t>
   </si>
@@ -65,6 +66,24 @@
   <si>
     <t>Colonne1</t>
   </si>
+  <si>
+    <t>papa</t>
+  </si>
+  <si>
+    <t>maman</t>
+  </si>
+  <si>
+    <t>frère</t>
+  </si>
+  <si>
+    <t>soeur</t>
+  </si>
+  <si>
+    <t>cousins</t>
+  </si>
+  <si>
+    <t>autres</t>
+  </si>
 </sst>
 </file>
 
@@ -72,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +103,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,33 +151,113 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -274,7 +381,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -292,7 +399,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -310,7 +417,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -381,12 +488,21 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,6 +515,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,6 +624,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-07BC-4981-BB05-7B5A06BAB73E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -519,6 +644,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-07BC-4981-BB05-7B5A06BAB73E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2394,34 +2524,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>171450</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="Hommes"/>
-    <tableColumn id="3" name="Femmes"/>
-    <tableColumn id="4" name="Total" dataDxfId="14"/>
+    <tableColumn id="1" name="Colonne1" dataDxfId="5"/>
+    <tableColumn id="2" name="Hommes" dataDxfId="4"/>
+    <tableColumn id="3" name="Femmes" dataDxfId="3"/>
+    <tableColumn id="4" name="Total" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="F1:I5" totalsRowShown="0" dataDxfId="10" dataCellStyle="Pourcentage">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="F1:I5" totalsRowShown="0" dataDxfId="19" dataCellStyle="Pourcentage">
   <autoFilter ref="F1:I5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Produits"/>
-    <tableColumn id="2" name="Homme" dataDxfId="13" dataCellStyle="Pourcentage">
+    <tableColumn id="2" name="Homme" dataDxfId="18" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>B2/$D$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Femme" dataDxfId="12" dataCellStyle="Pourcentage">
+    <tableColumn id="3" name="Femme" dataDxfId="17" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>C2/$D$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total" dataDxfId="11" dataCellStyle="Pourcentage">
+    <tableColumn id="4" name="Total" dataDxfId="16" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>D2/$D$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2430,17 +2615,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="M1:P5" totalsRowShown="0" dataDxfId="6" dataCellStyle="Milliers">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="M1:P5" totalsRowShown="0" dataDxfId="15" dataCellStyle="Milliers">
   <autoFilter ref="M1:P5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Produits"/>
-    <tableColumn id="2" name="Homme" dataDxfId="9" dataCellStyle="Milliers">
+    <tableColumn id="2" name="Homme" dataDxfId="14" dataCellStyle="Milliers">
       <calculatedColumnFormula>G2*$J$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Femme" dataDxfId="8" dataCellStyle="Milliers">
+    <tableColumn id="3" name="Femme" dataDxfId="13" dataCellStyle="Milliers">
       <calculatedColumnFormula>H2*$J$9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total" dataDxfId="7" dataCellStyle="Milliers">
+    <tableColumn id="4" name="Total" dataDxfId="12" dataCellStyle="Milliers">
       <calculatedColumnFormula>I2*$J$9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2453,7 +2638,7 @@
   <autoFilter ref="A8:B10"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Sexe"/>
-    <tableColumn id="2" name="proportion" dataDxfId="5" dataCellStyle="Pourcentage">
+    <tableColumn id="2" name="proportion" dataDxfId="11" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>C4/D4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2466,7 +2651,7 @@
   <autoFilter ref="M8:N10"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Sexe"/>
-    <tableColumn id="2" name="proportion" dataDxfId="4" dataCellStyle="Pourcentage">
+    <tableColumn id="2" name="proportion" dataDxfId="10" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>O4/P4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2475,17 +2660,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="R1:U5" totalsRowShown="0" dataDxfId="0" dataCellStyle="Pourcentage">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="R1:U5" totalsRowShown="0" dataDxfId="9" dataCellStyle="Pourcentage">
   <autoFilter ref="R1:U5"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Produits"/>
-    <tableColumn id="2" name="Homme" dataDxfId="3" dataCellStyle="Pourcentage">
+    <tableColumn id="2" name="Homme" dataDxfId="8" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>N2/$P$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Femme" dataDxfId="2" dataCellStyle="Pourcentage">
+    <tableColumn id="3" name="Femme" dataDxfId="7" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>O2/$P$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Total" dataDxfId="1" dataCellStyle="Pourcentage">
+    <tableColumn id="4" name="Total" dataDxfId="6" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>P2/$P$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2756,6 +2941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2821,11 +3007,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2835,17 +3025,17 @@
     <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F1" t="s">
@@ -2888,17 +3078,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>2945</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>1302</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <f>SUM(B2:C2)</f>
         <v>4247</v>
       </c>
@@ -2951,17 +3141,17 @@
         <v>0.56854082998661315</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>600</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>415</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D4" si="2">SUM(B3:C3)</f>
         <v>1015</v>
       </c>
@@ -3014,17 +3204,17 @@
         <v>0.1358768406961178</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>1588</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>620</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <f t="shared" si="2"/>
         <v>2208</v>
       </c>
@@ -3077,19 +3267,19 @@
         <v>0.29558232931726908</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <f>SUM(B2:B4)</f>
         <v>5133</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <f>SUM(C2:C4)</f>
         <v>2337</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f>SUM(D2:D4)</f>
         <v>7470</v>
       </c>
@@ -3199,16 +3389,88 @@
         <v>0.31285140562248998</v>
       </c>
     </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId4" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
   <tableParts count="6">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>